--- a/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>4,9; 16,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>10,63; 20,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>9,72; 16,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>10,18; 16,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>16,95; 23,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>14,84; 19,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,16%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,78; 13,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>19,06; 23,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>14,51; 17,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,68%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,71; 15,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,43; 18,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>10,61; 15,93</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,77%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>15,07; 20,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>21,35; 26,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>19,16; 22,75</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,97%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,01; 14,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>18,19; 21,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>15,85; 17,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 16,55</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 20,96</t>
+          <t>0; 0,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,81</t>
+          <t>0; 0,53</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,39</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,24</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,07</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,34</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 23,27</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,51; 17,72</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 15,14</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 18,32</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 15,93</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 20,03</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 26,36</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,16; 22,75</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,01; 14,66</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,19; 21,78</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,85; 17,94</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas para dormir a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1669</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1122</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1325</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2374</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1213</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1665</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1825</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1767</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1345</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1511</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1328</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1575</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Habitat-trans_dic.xlsx
@@ -557,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,35%</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>9,26; 14,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>14,85; 21,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>13,27; 17,29</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,25%</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,45; 12,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>18,78; 22,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>9,26; 16,46</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,15; 14,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,76; 17,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>8,04; 14,56</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,72%</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>14,43; 19,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>18,32; 24,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>17,43; 21,58</t>
         </is>
       </c>
     </row>
@@ -757,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,64; 13,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,21; 20,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,47; 16,81</t>
         </is>
       </c>
     </row>
@@ -900,17 +900,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>260</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>349</t>
         </is>
       </c>
     </row>
@@ -923,17 +923,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73850</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134990</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>208840</t>
         </is>
       </c>
     </row>
@@ -946,17 +946,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1669</t>
+          <t>58829; 92930</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 1122</t>
+          <t>107746; 155222</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 1325</t>
+          <t>180586; 235224</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>344</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>470</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105723</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200836</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>306559</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2374</t>
+          <t>53114; 143459</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1213</t>
+          <t>180017; 219475</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1665</t>
+          <t>199291; 354196</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1046,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>179</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>268</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1069,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81023</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117834</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>198857</t>
         </is>
       </c>
     </row>
@@ -1092,17 +1092,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0; 1999</t>
+          <t>64464; 98733</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0; 1710</t>
+          <t>63088; 159968</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0; 1825</t>
+          <t>131776; 238577</t>
         </is>
       </c>
     </row>
@@ -1119,17 +1119,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>585</t>
         </is>
       </c>
     </row>
@@ -1142,17 +1142,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155119</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>243634</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>398752</t>
         </is>
       </c>
     </row>
@@ -1165,17 +1165,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1767</t>
+          <t>133700; 181527</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1345</t>
+          <t>200603; 272849</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1511</t>
+          <t>352369; 436300</t>
         </is>
       </c>
     </row>
@@ -1192,17 +1192,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1672</t>
         </is>
       </c>
     </row>
@@ -1215,17 +1215,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>415715</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>697294</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1113009</t>
         </is>
       </c>
     </row>
@@ -1238,17 +1238,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0; 1968</t>
+          <t>333670; 466160</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0; 1328</t>
+          <t>564511; 760768</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0; 1575</t>
+          <t>966335; 1205571</t>
         </is>
       </c>
     </row>
